--- a/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF91D33A-959F-4EA8-91E9-E2587BE81BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9FEDCF-E67E-499E-936C-8A4D9A166CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0D43F4E-D36E-41B3-B4AE-E9511FB1A16F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA236353-A110-468B-B8CE-39827514EC1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -292,118 +292,115 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>97,5%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>5,68%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>3,23%</t>
@@ -412,28 +409,25 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>4,58%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>94,44%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
+    <t>94,63%</t>
+  </si>
+  <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>95,42%</t>
   </si>
   <si>
     <t>97,86%</t>
@@ -442,238 +436,256 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B430658A-C442-440C-BAB3-E5719DCF712B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E2C8D0-974D-4972-826F-1A6123E26679}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1836,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25CD3F-5F97-45FB-A5F6-B0070D7BF61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB2F27-41F7-4F23-A259-B19A659F6858}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1966,7 +1978,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -1975,13 +1987,13 @@
         <v>32750</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -1990,13 +2002,13 @@
         <v>46885</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,13 +2023,13 @@
         <v>751554</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>1007</v>
@@ -2026,13 +2038,13 @@
         <v>1078307</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>1717</v>
@@ -2041,13 +2053,13 @@
         <v>1829863</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2127,13 @@
         <v>20807</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2130,13 +2142,13 @@
         <v>40196</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -2145,13 +2157,13 @@
         <v>61002</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2178,13 @@
         <v>1619469</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>1397</v>
@@ -2181,13 +2193,13 @@
         <v>1502530</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>2933</v>
@@ -2196,10 +2208,10 @@
         <v>3122000</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>116</v>
@@ -2288,10 +2300,10 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2300,13 +2312,13 @@
         <v>27057</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2333,13 @@
         <v>411838</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>360</v>
@@ -2339,10 +2351,10 @@
         <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>735</v>
@@ -2351,13 +2363,13 @@
         <v>810945</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2437,13 @@
         <v>48784</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -2440,13 +2452,13 @@
         <v>86161</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2455,13 +2467,13 @@
         <v>134945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2488,13 @@
         <v>2782862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>2764</v>
@@ -2491,13 +2503,13 @@
         <v>2979944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>5385</v>
@@ -2506,13 +2518,13 @@
         <v>5762807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B747B77C-5CBD-4EA4-80CE-F9D523BEC7FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B9038-DB1E-4FC4-AB33-5C3C8AEF1C1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2604,7 +2616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2711,13 +2723,13 @@
         <v>13812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2726,13 +2738,13 @@
         <v>22281</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2741,13 +2753,13 @@
         <v>36094</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2774,13 @@
         <v>443607</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>561</v>
@@ -2777,13 +2789,13 @@
         <v>616593</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>1007</v>
@@ -2792,13 +2804,13 @@
         <v>1060200</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,10 +2896,10 @@
         <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2896,13 +2908,13 @@
         <v>81422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2929,13 @@
         <v>1647524</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>1616</v>
@@ -2932,13 +2944,13 @@
         <v>1676379</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>3170</v>
@@ -2947,13 +2959,13 @@
         <v>3323902</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3033,13 @@
         <v>13168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3036,13 +3048,13 @@
         <v>21778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3051,13 +3063,13 @@
         <v>34946</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3084,13 @@
         <v>486076</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>468</v>
@@ -3087,13 +3099,13 @@
         <v>486542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>915</v>
@@ -3102,13 +3114,13 @@
         <v>972618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>76400</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -3206,13 +3218,13 @@
         <v>152462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3239,13 @@
         <v>2577207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>2645</v>
@@ -3242,13 +3254,13 @@
         <v>2779513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>5092</v>
@@ -3257,13 +3269,13 @@
         <v>5356720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E9FEDCF-E67E-499E-936C-8A4D9A166CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BF326A-E0E1-4A83-AFC4-592A8293FF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA236353-A110-468B-B8CE-39827514EC1C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{404759E6-BC2C-4817-BA72-74F97F4D3EE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="210">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -76,616 +76,598 @@
     <t>3,67%</t>
   </si>
   <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E2C8D0-974D-4972-826F-1A6123E26679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A7823B-89E7-4BBA-8536-853B3AA45FF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1376,13 +1358,13 @@
         <v>31952</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -1391,13 +1373,13 @@
         <v>24274</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -1406,13 +1388,13 @@
         <v>56226</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,13 +1409,13 @@
         <v>1279285</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1319</v>
@@ -1442,13 +1424,13 @@
         <v>1346257</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2568</v>
@@ -1457,13 +1439,13 @@
         <v>2625542</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,7 +1501,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1531,13 +1513,13 @@
         <v>7098</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1546,13 +1528,13 @@
         <v>14637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -1561,10 +1543,10 @@
         <v>21735</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -1597,13 +1579,13 @@
         <v>393128</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -1612,13 +1594,13 @@
         <v>836959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,13 +1668,13 @@
         <v>64290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -1701,13 +1683,13 @@
         <v>86034</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -1716,13 +1698,13 @@
         <v>150323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,16 +1716,16 @@
         <v>2340</v>
       </c>
       <c r="D14" s="7">
-        <v>2386201</v>
+        <v>2386200</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>2593</v>
@@ -1752,13 +1734,13 @@
         <v>2651221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>4933</v>
@@ -1767,13 +1749,13 @@
         <v>5037423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,7 +1767,7 @@
         <v>2403</v>
       </c>
       <c r="D15" s="7">
-        <v>2450491</v>
+        <v>2450490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1829,7 +1811,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEB2F27-41F7-4F23-A259-B19A659F6858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33926F29-DC6A-4A39-AB68-F6F3D5B1FBF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1865,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1972,13 +1954,13 @@
         <v>14136</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -1987,13 +1969,13 @@
         <v>32750</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2002,13 +1984,13 @@
         <v>46885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2005,13 @@
         <v>751554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1007</v>
@@ -2038,28 +2020,28 @@
         <v>1078307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M5" s="7">
         <v>1717</v>
       </c>
       <c r="N5" s="7">
-        <v>1829863</v>
+        <v>1829862</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,7 +2083,7 @@
         <v>1759</v>
       </c>
       <c r="N6" s="7">
-        <v>1876748</v>
+        <v>1876747</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2127,13 +2109,13 @@
         <v>20807</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2142,13 +2124,13 @@
         <v>40196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -2157,13 +2139,13 @@
         <v>61002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2160,13 @@
         <v>1619469</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1397</v>
@@ -2193,13 +2175,13 @@
         <v>1502530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>2933</v>
@@ -2208,13 +2190,13 @@
         <v>3122000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2252,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2282,13 +2264,13 @@
         <v>13842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2297,13 +2279,13 @@
         <v>13215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2312,13 +2294,13 @@
         <v>27057</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,7 +2315,7 @@
         <v>411838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>125</v>
@@ -2348,13 +2330,13 @@
         <v>399107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>735</v>
@@ -2363,13 +2345,13 @@
         <v>810945</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,7 +2440,7 @@
         <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2467,13 +2449,13 @@
         <v>134945</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2470,13 @@
         <v>2782862</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>2764</v>
@@ -2503,13 +2485,13 @@
         <v>2979944</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>5385</v>
@@ -2518,13 +2500,13 @@
         <v>5762807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B9038-DB1E-4FC4-AB33-5C3C8AEF1C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F44ECB-C2D5-4F71-BF43-C30538E5DE74}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2616,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2723,13 +2705,13 @@
         <v>13812</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2738,13 +2720,13 @@
         <v>22281</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2753,13 +2735,13 @@
         <v>36094</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2756,13 @@
         <v>443607</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>561</v>
@@ -2789,13 +2771,13 @@
         <v>616593</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>1007</v>
@@ -2804,13 +2786,13 @@
         <v>1060200</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2860,13 @@
         <v>49081</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -2893,13 +2875,13 @@
         <v>32340</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2908,13 +2890,13 @@
         <v>81422</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2911,13 @@
         <v>1647524</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>1616</v>
@@ -2944,13 +2926,13 @@
         <v>1676379</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>3170</v>
@@ -2959,13 +2941,13 @@
         <v>3323902</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +3003,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3033,13 +3015,13 @@
         <v>13168</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3048,13 +3030,13 @@
         <v>21778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3063,13 +3045,13 @@
         <v>34946</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3066,13 @@
         <v>486076</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>468</v>
@@ -3099,13 +3081,13 @@
         <v>486542</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>915</v>
@@ -3114,13 +3096,13 @@
         <v>972618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3170,13 @@
         <v>76062</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -3203,13 +3185,13 @@
         <v>76400</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -3218,13 +3200,13 @@
         <v>152462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3221,13 @@
         <v>2577207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>2645</v>
@@ -3254,13 +3236,13 @@
         <v>2779513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>5092</v>
@@ -3269,13 +3251,13 @@
         <v>5356720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3313,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BF326A-E0E1-4A83-AFC4-592A8293FF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21403AAA-071A-4929-B701-B6D9AF516A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{404759E6-BC2C-4817-BA72-74F97F4D3EE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FE354FC-290F-4CB4-B505-BDFB8B3084D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2007 (Tasa respuesta: 78,01%)</t>
   </si>
@@ -70,604 +70,610 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>97,23%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2012 (Tasa respuesta: 84,77%)</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por otros motivos en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,67%</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A7823B-89E7-4BBA-8536-853B3AA45FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666DA6C6-47B7-4C29-9239-63A7A5FE1365}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1358,13 +1364,13 @@
         <v>31952</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -1373,13 +1379,13 @@
         <v>24274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -1388,13 +1394,13 @@
         <v>56226</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,13 +1415,13 @@
         <v>1279285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1319</v>
@@ -1424,13 +1430,13 @@
         <v>1346257</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2568</v>
@@ -1439,13 +1445,13 @@
         <v>2625542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,7 +1507,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1513,13 +1519,13 @@
         <v>7098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -1528,13 +1534,13 @@
         <v>14637</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -1543,10 +1549,10 @@
         <v>21735</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>57</v>
@@ -1579,13 +1585,13 @@
         <v>393128</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -1594,13 +1600,13 @@
         <v>836959</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1674,13 @@
         <v>64290</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -1683,13 +1689,13 @@
         <v>86034</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -1698,13 +1704,13 @@
         <v>150323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,16 +1722,16 @@
         <v>2340</v>
       </c>
       <c r="D14" s="7">
-        <v>2386200</v>
+        <v>2386201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>2593</v>
@@ -1734,13 +1740,13 @@
         <v>2651221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>4933</v>
@@ -1749,13 +1755,13 @@
         <v>5037423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,7 +1773,7 @@
         <v>2403</v>
       </c>
       <c r="D15" s="7">
-        <v>2450490</v>
+        <v>2450491</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1811,7 +1817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33926F29-DC6A-4A39-AB68-F6F3D5B1FBF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE186A76-E1E0-4DB8-A713-14E50AFAD6B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1954,13 +1960,13 @@
         <v>14136</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -1969,13 +1975,13 @@
         <v>32750</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -1984,13 +1990,13 @@
         <v>46885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2011,13 @@
         <v>751554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>1007</v>
@@ -2020,28 +2026,28 @@
         <v>1078307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>1717</v>
       </c>
       <c r="N5" s="7">
-        <v>1829862</v>
+        <v>1829863</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,7 +2089,7 @@
         <v>1759</v>
       </c>
       <c r="N6" s="7">
-        <v>1876747</v>
+        <v>1876748</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2109,13 +2115,13 @@
         <v>20807</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2124,13 +2130,13 @@
         <v>40196</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -2139,13 +2145,13 @@
         <v>61002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2166,13 @@
         <v>1619469</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1397</v>
@@ -2175,13 +2181,13 @@
         <v>1502530</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>2933</v>
@@ -2190,13 +2196,13 @@
         <v>3122000</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,7 +2258,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2264,13 +2270,13 @@
         <v>13842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2279,13 +2285,13 @@
         <v>13215</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2294,10 +2300,10 @@
         <v>27057</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>124</v>
@@ -2315,13 +2321,13 @@
         <v>411838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>360</v>
@@ -2330,13 +2336,13 @@
         <v>399107</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>735</v>
@@ -2345,13 +2351,13 @@
         <v>810945</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2425,13 @@
         <v>48784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -2434,13 +2440,13 @@
         <v>86161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2449,13 +2455,13 @@
         <v>134945</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2476,13 @@
         <v>2782862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>2764</v>
@@ -2485,13 +2491,13 @@
         <v>2979944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>5385</v>
@@ -2500,13 +2506,13 @@
         <v>5762807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F44ECB-C2D5-4F71-BF43-C30538E5DE74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09AA79-52FE-47DE-83E0-44AA3773FE40}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2598,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2705,13 +2711,13 @@
         <v>13812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2720,13 +2726,13 @@
         <v>22281</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2735,13 +2741,13 @@
         <v>36094</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2762,13 @@
         <v>443607</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>561</v>
@@ -2771,13 +2777,13 @@
         <v>616593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>1007</v>
@@ -2786,13 +2792,13 @@
         <v>1060200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2866,13 @@
         <v>49081</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -2875,13 +2881,13 @@
         <v>32340</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2890,10 +2896,10 @@
         <v>81422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>172</v>
@@ -2932,7 +2938,7 @@
         <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>3170</v>
@@ -2941,13 +2947,13 @@
         <v>3323902</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3009,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3015,13 +3021,13 @@
         <v>13168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -3030,13 +3036,13 @@
         <v>21778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3045,10 +3051,10 @@
         <v>34946</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>188</v>
@@ -3066,13 +3072,13 @@
         <v>486076</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>468</v>
@@ -3081,13 +3087,13 @@
         <v>486542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>915</v>
@@ -3096,13 +3102,13 @@
         <v>972618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3176,13 @@
         <v>76062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -3185,13 +3191,13 @@
         <v>76400</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -3200,13 +3206,13 @@
         <v>152462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3227,13 @@
         <v>2577207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>2645</v>
@@ -3236,13 +3242,13 @@
         <v>2779513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>5092</v>
@@ -3251,13 +3257,13 @@
         <v>5356720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21403AAA-071A-4929-B701-B6D9AF516A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0973DD3E-FB4A-4E6B-8B55-6EB8BB2ECD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7FE354FC-290F-4CB4-B505-BDFB8B3084D7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{516680AB-E836-447E-8A08-9DC13A9BF556}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666DA6C6-47B7-4C29-9239-63A7A5FE1365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6256F96F-FAA7-4639-8792-45238BD5F339}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1752,7 +1752,7 @@
         <v>4933</v>
       </c>
       <c r="N14" s="7">
-        <v>5037423</v>
+        <v>5037422</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
@@ -1803,7 +1803,7 @@
         <v>5079</v>
       </c>
       <c r="N15" s="7">
-        <v>5187746</v>
+        <v>5187745</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE186A76-E1E0-4DB8-A713-14E50AFAD6B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15E00D9-DAD6-4112-81C3-63F00AD8467C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2038,7 +2038,7 @@
         <v>1717</v>
       </c>
       <c r="N5" s="7">
-        <v>1829863</v>
+        <v>1829862</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>98</v>
@@ -2089,7 +2089,7 @@
         <v>1759</v>
       </c>
       <c r="N6" s="7">
-        <v>1876748</v>
+        <v>1876747</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2587,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09AA79-52FE-47DE-83E0-44AA3773FE40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60838099-69C5-4E0F-BAF8-05122BF732DC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2789,7 +2789,7 @@
         <v>1007</v>
       </c>
       <c r="N5" s="7">
-        <v>1060200</v>
+        <v>1060199</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>164</v>
@@ -2840,7 +2840,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
